--- a/Excels/JN技能表.xlsx
+++ b/Excels/JN技能表.xlsx
@@ -35,10 +35,10 @@
     <t>float</t>
   </si>
   <si>
-    <t>array</t>
-  </si>
-  <si>
-    <t>json</t>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>dict&lt;string,string&gt;</t>
   </si>
   <si>
     <t>id</t>
@@ -250,10 +250,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -275,6 +275,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -282,6 +290,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -298,14 +329,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,9 +342,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,9 +388,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,53 +404,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,14 +418,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -440,12 +440,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -458,43 +542,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,25 +572,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,91 +620,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,6 +658,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -669,6 +680,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,22 +717,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,171 +746,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1267,7 +1267,7 @@
   <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1506,7 +1506,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" ht="13.5" spans="1:28">
+    <row r="4" spans="1:28">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>

--- a/Excels/JN技能表.xlsx
+++ b/Excels/JN技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <t>#</t>
   </si>
   <si>
-    <t>#name spell</t>
+    <t>#name CfgSpell</t>
   </si>
   <si>
     <t>#index unique id</t>
@@ -47,82 +47,82 @@
     <t>name</t>
   </si>
   <si>
-    <t>class_path_lua</t>
-  </si>
-  <si>
-    <t>class_path_cs</t>
-  </si>
-  <si>
-    <t>is_can_move_while_cast</t>
+    <t>classPathLua</t>
+  </si>
+  <si>
+    <t>classPathCs</t>
+  </si>
+  <si>
+    <t>isCanMoveWhileCast</t>
   </si>
   <si>
     <t>range</t>
   </si>
   <si>
-    <t>damage_factor</t>
+    <t>damageFactor</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
-    <t>target_type</t>
-  </si>
-  <si>
-    <t>damage_type</t>
-  </si>
-  <si>
-    <t>cast_type</t>
-  </si>
-  <si>
-    <t>action_name</t>
-  </si>
-  <si>
-    <t>animation_name</t>
-  </si>
-  <si>
-    <t>animation_duration</t>
-  </si>
-  <si>
-    <t>hand_effect_ids</t>
-  </si>
-  <si>
-    <t>go_effect_ids</t>
-  </si>
-  <si>
-    <t>hit_effect_ids</t>
-  </si>
-  <si>
-    <t>ground_effect_ids</t>
-  </si>
-  <si>
-    <t>line_effect_ids</t>
-  </si>
-  <si>
-    <t>is_not_face_to_target</t>
-  </si>
-  <si>
-    <t>cast_time</t>
-  </si>
-  <si>
-    <t>break_time</t>
-  </si>
-  <si>
-    <t>new_spell_trigger_ids</t>
-  </si>
-  <si>
-    <t>is_need_target</t>
-  </si>
-  <si>
-    <t>cooldown_duration</t>
-  </si>
-  <si>
-    <t>passive_buff_ids</t>
-  </si>
-  <si>
-    <t>select_unit_arg_dict</t>
-  </si>
-  <si>
-    <t>arg_dict</t>
+    <t>targetType</t>
+  </si>
+  <si>
+    <t>damageType</t>
+  </si>
+  <si>
+    <t>castType</t>
+  </si>
+  <si>
+    <t>actionName</t>
+  </si>
+  <si>
+    <t>animationName</t>
+  </si>
+  <si>
+    <t>animationDuration</t>
+  </si>
+  <si>
+    <t>handEffectIds</t>
+  </si>
+  <si>
+    <t>goEffectIds</t>
+  </si>
+  <si>
+    <t>hitEffectIds</t>
+  </si>
+  <si>
+    <t>groundEffectIds</t>
+  </si>
+  <si>
+    <t>lineEffectIds</t>
+  </si>
+  <si>
+    <t>isNotFaceToTarget</t>
+  </si>
+  <si>
+    <t>castTime</t>
+  </si>
+  <si>
+    <t>breakTime</t>
+  </si>
+  <si>
+    <t>newSpellTriggerIds</t>
+  </si>
+  <si>
+    <t>isNeedTarget</t>
+  </si>
+  <si>
+    <t>cooldownDuration</t>
+  </si>
+  <si>
+    <t>passiveBuffIds</t>
+  </si>
+  <si>
+    <t>selectUnitArgDict</t>
+  </si>
+  <si>
+    <t>argDict</t>
   </si>
   <si>
     <t>ID</t>
@@ -209,19 +209,19 @@
     <t>技能1</t>
   </si>
   <si>
-    <t>#name spellTrigger</t>
-  </si>
-  <si>
-    <t>trigger_type</t>
-  </si>
-  <si>
-    <t>trigger_spell_id</t>
-  </si>
-  <si>
-    <t>trigger_spell_delay_duration</t>
-  </si>
-  <si>
-    <t>check_target</t>
+    <t>#name CfgSpellTrigger</t>
+  </si>
+  <si>
+    <t>triggerType</t>
+  </si>
+  <si>
+    <t>triggerSpellId</t>
+  </si>
+  <si>
+    <t>triggerSpellDelayDuration</t>
+  </si>
+  <si>
+    <t>checkTarget</t>
   </si>
   <si>
     <t>condition</t>
@@ -250,10 +250,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -275,6 +275,64 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -283,22 +341,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,59 +403,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -373,28 +411,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -402,22 +418,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -440,19 +440,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,163 +608,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,34 +652,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,8 +661,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,9 +699,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,171 +746,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1266,8 +1266,8 @@
   <sheetPr/>
   <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1334,7 +1334,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" ht="13.5" spans="1:28">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" ht="13.5" spans="1:28">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -1615,8 +1615,8 @@
   <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
